--- a/inanimateWebReferences/decoration2DF.xlsx
+++ b/inanimateWebReferences/decoration2DF.xlsx
@@ -380,12 +380,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon01.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon01.jpeg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon01_f_4391896964_6c67c01cfe_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon01_f_4391896964_6c67c01cfe_o.jpg</t>
         </is>
       </c>
     </row>
@@ -395,12 +395,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon02.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon02.jpeg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon02_pa_balloons-1211008_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon02_pa_balloons-1211008_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -410,12 +410,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon03.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon03.jpeg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon03_f_9519448141_39d22810eb_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon03_f_9519448141_39d22810eb_o.jpg</t>
         </is>
       </c>
     </row>
@@ -425,12 +425,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon04.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon04.jpeg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon04_pxh_balloons_party_birthday_colors_violet-1173242.jpg!d.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon04_pxh_balloons_party_birthday_colors_violet-1173242.jpg!d.jpeg</t>
         </is>
       </c>
     </row>
@@ -440,12 +440,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon05.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon05.jpeg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon05_f_8289049688_6b635bd150_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon05_f_8289049688_6b635bd150_o.jpg</t>
         </is>
       </c>
     </row>
@@ -455,12 +455,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon06.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon06.jpeg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon06_pi_Balloons the interior of the moscow..jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon06_pi_Balloons the interior of the moscow..jpg</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon07.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon07.jpeg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon07_pa_balloons-1786430_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon07_pa_balloons-1786430_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -485,12 +485,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon08.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon08.jpeg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon08_pxh_balloons_colorful_ballons_color_water_pool_drive_swim-398900.jpg!d.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon08_pxh_balloons_colorful_ballons_color_water_pool_drive_swim-398900.jpg!d.jpeg</t>
         </is>
       </c>
     </row>
@@ -500,12 +500,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon09.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon09.jpeg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon09_pxh_party_balloons_celebration_party_happy_birthday_balloons_happy_birthday_balloons-600810.jpg!d.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon09_pxh_party_balloons_celebration_party_happy_birthday_balloons_happy_birthday_balloons-600810.jpg!d.jpeg</t>
         </is>
       </c>
     </row>
@@ -515,12 +515,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon10.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon10.jpeg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon10_mp_Celebration-Pink-Party-Balloon-Fly-2827323.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon10_mp_Celebration-Pink-Party-Balloon-Fly-2827323.jpg</t>
         </is>
       </c>
     </row>
@@ -530,12 +530,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon11.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon11.jpeg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon11_np_red-green-white-balloons.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon11_np_red-green-white-balloons.jpg</t>
         </is>
       </c>
     </row>
@@ -545,12 +545,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon12.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon12.jpeg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon12_w_1600px-Balloons_3.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon12_w_1600px-Balloons_3.jpg</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon13.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon13.jpeg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon13_pdp_party-balloons.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon13_pdp_party-balloons.jpg</t>
         </is>
       </c>
     </row>
@@ -575,12 +575,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon14.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon14.jpeg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon14_p_pexels-photo-2063532.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon14_p_pexels-photo-2063532.jpeg</t>
         </is>
       </c>
     </row>
@@ -590,12 +590,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon15.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon15.jpeg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon15_mp_Birthday-Party-Celebration-Happy-Colorful-Balloon-1936941.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon15_mp_Birthday-Party-Celebration-Happy-Colorful-Balloon-1936941.jpg</t>
         </is>
       </c>
     </row>
@@ -605,12 +605,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon16.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon16.jpeg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon16_pxh_22a9a7f5a770f656f11fc12ea4b0-1592017.jpg!d.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon16_pxh_22a9a7f5a770f656f11fc12ea4b0-1592017.jpg!d.jpeg</t>
         </is>
       </c>
     </row>
@@ -620,12 +620,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon17.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon17.jpeg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon17_f_190713106_a00b597d9a_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon17_f_190713106_a00b597d9a_o.jpg</t>
         </is>
       </c>
     </row>
@@ -635,12 +635,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon18.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon18.jpeg</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon18_pxh_balloons_colorful_colourful_hd_wallpaper_sky-1179414.jpg!d.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon18_pxh_balloons_colorful_colourful_hd_wallpaper_sky-1179414.jpg!d.jpeg</t>
         </is>
       </c>
     </row>
@@ -650,12 +650,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon19.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon19.jpeg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon19_f_7889858270_e09522fc09_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon19_f_7889858270_e09522fc09_o.jpg</t>
         </is>
       </c>
     </row>
@@ -665,12 +665,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon20.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon20.jpeg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_balloon\balloon20_p_balloon-balloons-birthday-806110.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_balloon\balloon20_p_balloon-balloons-birthday-806110.jpg</t>
         </is>
       </c>
     </row>
@@ -680,12 +680,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle01.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle01.jpeg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle01_f_6603594953_b64a1ffb3f_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle01_f_6603594953_b64a1ffb3f_o.jpg</t>
         </is>
       </c>
     </row>
@@ -695,12 +695,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle02.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle02.jpeg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle02_mdg_171020-F-DB163-033.JPG</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle02_mdg_171020-F-DB163-033.JPG</t>
         </is>
       </c>
     </row>
@@ -710,12 +710,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle03.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle03.jpeg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle03_np_candle-3047424_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle03_np_candle-3047424_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -725,12 +725,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle04.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle04.jpeg</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle04_mdg_160413-F-RJ363-518.JPG</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle04_mdg_160413-F-RJ363-518.JPG</t>
         </is>
       </c>
     </row>
@@ -740,12 +740,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle05.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle05.jpeg</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle05_pdp_white-christmas-candle-decoration.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle05_pdp_white-christmas-candle-decoration.jpg</t>
         </is>
       </c>
     </row>
@@ -755,12 +755,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle06.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle06.jpeg</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle06_pn_PIXNIO-239591-3048x4382.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle06_pn_PIXNIO-239591-3048x4382.jpg</t>
         </is>
       </c>
     </row>
@@ -770,12 +770,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle07.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle07.jpeg</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle07_w_Candle-.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle07_w_Candle-.jpg</t>
         </is>
       </c>
     </row>
@@ -785,12 +785,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle08.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle08.jpeg</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle08_p_aroma-aromatic-candle-1830978.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle08_p_aroma-aromatic-candle-1830978.jpg</t>
         </is>
       </c>
     </row>
@@ -800,12 +800,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle09.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle09.jpeg</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle09_pn_PIXNIO-1799938-4160x3120.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle09_pn_PIXNIO-1799938-4160x3120.jpg</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle10.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle10.jpeg</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle10_w_Candle_on_Christmas_tree_2.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle10_w_Candle_on_Christmas_tree_2.jpg</t>
         </is>
       </c>
     </row>
@@ -830,12 +830,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle11.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle11.jpeg</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle11_pdp_christmas-decoration-with-candle.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle11_pdp_christmas-decoration-with-candle.jpg</t>
         </is>
       </c>
     </row>
@@ -845,12 +845,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle12.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle12.jpeg</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle12_pxh_advent_christmas_candle_advent_wreath_christmas_market_decoration_light-1217063.jpg!d.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle12_pxh_advent_christmas_candle_advent_wreath_christmas_market_decoration_light-1217063.jpg!d.jpeg</t>
         </is>
       </c>
     </row>
@@ -860,12 +860,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle13.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle13.jpeg</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle13_pn_2018-10-12-19-40-23-1200x900.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle13_pn_2018-10-12-19-40-23-1200x900.jpg</t>
         </is>
       </c>
     </row>
@@ -875,12 +875,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle14.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle14.jpeg</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle14_pn_2018-10-12-19-48-27-1200x900.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle14_pn_2018-10-12-19-48-27-1200x900.jpg</t>
         </is>
       </c>
     </row>
@@ -890,12 +890,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle15.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle15.jpeg</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle15_pi_Christmas tree decoration christmas..jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle15_pi_Christmas tree decoration christmas..jpg</t>
         </is>
       </c>
     </row>
@@ -905,12 +905,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle16.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle16.jpeg</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle16_mp_December-Advent-Candle-Decoration-Advent-Wreath-581136.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle16_mp_December-Advent-Candle-Decoration-Advent-Wreath-581136.jpg</t>
         </is>
       </c>
     </row>
@@ -920,12 +920,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle17.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle17.jpeg</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle17_p_pexels-photo-278869.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle17_p_pexels-photo-278869.jpeg</t>
         </is>
       </c>
     </row>
@@ -935,12 +935,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle18.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle18.jpeg</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle18_pi_Candle advent wreath advent arrangement..jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle18_pi_Candle advent wreath advent arrangement..jpg</t>
         </is>
       </c>
     </row>
@@ -950,12 +950,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle19.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle19.jpeg</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle19_np_christmas-table-candles-1445268512X4d.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle19_np_christmas-table-candles-1445268512X4d.jpg</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle20.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle20.jpeg</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_candle\candle20_mp_Decorative-Festive-Candle-Decoration-Candlelight-912773.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_candle\candle20_mp_Decorative-Festive-Candle-Decoration-Candlelight-912773.jpg</t>
         </is>
       </c>
     </row>
@@ -980,12 +980,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet01.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet01.jpeg</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet01_w_Holbein_carpet_-_Turkey_-_16th_century_-_Louvre_-_Inventory_number_AD_11695.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet01_w_Holbein_carpet_-_Turkey_-_16th_century_-_Louvre_-_Inventory_number_AD_11695.jpg</t>
         </is>
       </c>
     </row>
@@ -995,12 +995,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet02.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet02.jpeg</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet02_pxh_floor-pattern-tile-set-art-carpet-485665-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet02_pxh_floor-pattern-tile-set-art-carpet-485665-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -1010,12 +1010,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet03.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet03.jpeg</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet03_pxh_wood-floor-design-hardwood-carpet-flooring-135571-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet03_pxh_wood-floor-design-hardwood-carpet-flooring-135571-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -1025,12 +1025,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet04.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet04.jpeg</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet04_p_red-carpet-statue-1111654.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet04_p_red-carpet-statue-1111654.jpg</t>
         </is>
       </c>
     </row>
@@ -1040,12 +1040,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet05.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet05.jpeg</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet05_pxh_furniture-room-interior-design-turkey-carpet-tourist-attraction-947364-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet05_pxh_furniture-room-interior-design-turkey-carpet-tourist-attraction-947364-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -1055,12 +1055,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet06.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet06.jpeg</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet06_f_5044271402_f6a65523e2_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet06_f_5044271402_f6a65523e2_o.jpg</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet07.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet07.jpeg</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet07_w_Living_Room.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet07_w_Living_Room.jpg</t>
         </is>
       </c>
     </row>
@@ -1085,12 +1085,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet08.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet08.jpeg</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet08_p_apartment-carpet-clean-276666.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet08_p_apartment-carpet-clean-276666.jpg</t>
         </is>
       </c>
     </row>
@@ -1100,12 +1100,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet09.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet09.jpeg</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet09_pxh_table-leather-floor-gray-living-room-furniture-479463-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet09_pxh_table-leather-floor-gray-living-room-furniture-479463-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -1115,12 +1115,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet10.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet10.jpeg</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet10_f_8595486600_7705a99486_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet10_f_8595486600_7705a99486_o.jpg</t>
         </is>
       </c>
     </row>
@@ -1130,12 +1130,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet11.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet11.jpeg</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet11_pxh_room-property-dining-room-furniture-floor-building-1575061-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet11_pxh_room-property-dining-room-furniture-floor-building-1575061-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet12.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet12.jpeg</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet12_f_7924971012_5bbc7687dd_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet12_f_7924971012_5bbc7687dd_o.jpg</t>
         </is>
       </c>
     </row>
@@ -1160,12 +1160,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet13.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet13.jpeg</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet13_pn_PIXNIO-11274-1600x1200.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet13_pn_PIXNIO-11274-1600x1200.jpg</t>
         </is>
       </c>
     </row>
@@ -1175,12 +1175,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet14.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet14.jpeg</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet14_f_72445900_599624288a_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet14_f_72445900_599624288a_o.jpg</t>
         </is>
       </c>
     </row>
@@ -1190,12 +1190,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet15.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet15.jpeg</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet15_mdg_140606-F-IP756-004.JPG</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet15_mdg_140606-F-IP756-004.JPG</t>
         </is>
       </c>
     </row>
@@ -1205,12 +1205,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet16.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet16.jpeg</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet16_mdg_140606-F-IP756-004.JPG</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet16_mdg_140606-F-IP756-004.JPG</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1220,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet17.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet17.jpeg</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet17_w_Carpet_sellers_in_Fes_(5364475261).jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet17_w_Carpet_sellers_in_Fes_(5364475261).jpg</t>
         </is>
       </c>
     </row>
@@ -1235,12 +1235,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet18.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet18.jpeg</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet18_p_homes-for-sale-interior-276774.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet18_p_homes-for-sale-interior-276774.jpg</t>
         </is>
       </c>
     </row>
@@ -1250,12 +1250,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet19.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet19.jpeg</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet19_pxh_restaurant-live-furniture-room-candlestick-interior-design-840217-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet19_pxh_restaurant-live-furniture-room-candlestick-interior-design-840217-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -1265,12 +1265,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet20.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet20.jpeg</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_carpet\carpet20_f_32989526498_647b96c3ee_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_carpet\carpet20_f_32989526498_647b96c3ee_o.jpg</t>
         </is>
       </c>
     </row>
@@ -1280,12 +1280,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier01.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier01.jpeg</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier01_pn_PIXNIO-2182420-6000x4000.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier01_pn_PIXNIO-2182420-6000x4000.jpg</t>
         </is>
       </c>
     </row>
@@ -1295,12 +1295,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier02.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier02.jpeg</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier02_w_12-1257-miniatures-chandelier-chicago-museum-art.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier02_w_12-1257-miniatures-chandelier-chicago-museum-art.jpg</t>
         </is>
       </c>
     </row>
@@ -1310,12 +1310,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier03.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier03.jpeg</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier03_w_Glass_chandelier.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier03_w_Glass_chandelier.jpg</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier04.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier04.jpeg</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier04_f_40589508861_f9c0fa2277_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier04_f_40589508861_f9c0fa2277_o.jpg</t>
         </is>
       </c>
     </row>
@@ -1340,12 +1340,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier05.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier05.jpeg</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier05_pn_PIXNIO-2068318-6000x4000.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier05_pn_PIXNIO-2068318-6000x4000.jpg</t>
         </is>
       </c>
     </row>
@@ -1355,12 +1355,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier06.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier06.jpeg</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier06_f_307092181_3dcaefb8ca_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier06_f_307092181_3dcaefb8ca_o.jpg</t>
         </is>
       </c>
     </row>
@@ -1370,12 +1370,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier07.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier07.jpeg</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier07_pn_PIXNIO-2068316-6000x4000.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier07_pn_PIXNIO-2068316-6000x4000.jpg</t>
         </is>
       </c>
     </row>
@@ -1385,12 +1385,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier08.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier08.jpeg</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier08_f_44932589052_6c05340b69_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier08_f_44932589052_6c05340b69_o.jpg</t>
         </is>
       </c>
     </row>
@@ -1400,12 +1400,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier09.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier09.jpeg</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier09_pxh_architecture-light-fixture-chandelier-ceiling-lighting-light-1434275-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier09_pxh_architecture-light-fixture-chandelier-ceiling-lighting-light-1434275-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -1415,12 +1415,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier10.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier10.jpeg</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier10_pdp_chandelier-in-a-church-1523272638NyK.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier10_pdp_chandelier-in-a-church-1523272638NyK.jpg</t>
         </is>
       </c>
     </row>
@@ -1430,12 +1430,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier11.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier11.jpeg</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier11_np_chandelier-in-a-church-1523272658pXI.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier11_np_chandelier-in-a-church-1523272658pXI.jpg</t>
         </is>
       </c>
     </row>
@@ -1445,12 +1445,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier12.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier12.jpeg</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier12_w_Chandelier_in_badshahi_mosque.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier12_w_Chandelier_in_badshahi_mosque.jpg</t>
         </is>
       </c>
     </row>
@@ -1460,12 +1460,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier13.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier13.jpeg</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier13_pn_PIXNIO-2068174-6000x4000.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier13_pn_PIXNIO-2068174-6000x4000.jpg</t>
         </is>
       </c>
     </row>
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier14.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier14.jpeg</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier14_pn_PIXNIO-2146970-6000x4000.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier14_pn_PIXNIO-2146970-6000x4000.jpg</t>
         </is>
       </c>
     </row>
@@ -1490,12 +1490,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier15.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier15.jpeg</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier15_f_15015008390_a76b6cc836_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier15_f_15015008390_a76b6cc836_o.jpg</t>
         </is>
       </c>
     </row>
@@ -1505,12 +1505,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier16.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier16.jpeg</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier16_np_chandelier-666436_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier16_np_chandelier-666436_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -1520,12 +1520,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier17.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier17.jpeg</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier17_pn_PIXNIO-2068172-6000x4000.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier17_pn_PIXNIO-2068172-6000x4000.jpg</t>
         </is>
       </c>
     </row>
@@ -1535,12 +1535,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier18.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier18.jpeg</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier18_p_altar-cathedral-catholic-2549057.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier18_p_altar-cathedral-catholic-2549057.jpg</t>
         </is>
       </c>
     </row>
@@ -1550,12 +1550,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier19.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier19.jpeg</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier19_pn_PIXNIO-2041939-4896x3672.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier19_pn_PIXNIO-2041939-4896x3672.jpg</t>
         </is>
       </c>
     </row>
@@ -1565,12 +1565,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier20.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier20.jpeg</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chandelier\chandelier20_pn_PIXNIO-2068264-6000x4000.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chandelier\chandelier20_pn_PIXNIO-2068264-6000x4000.jpg</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime01.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime01.jpeg</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime01_p_bird-house-birdhouse-decor-2925015.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime01_p_bird-house-birdhouse-decor-2925015.jpg</t>
         </is>
       </c>
     </row>
@@ -1595,12 +1595,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime02.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime02.jpeg</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime02_f_2444539814_a270d30bcb_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime02_f_2444539814_a270d30bcb_o.jpg</t>
         </is>
       </c>
     </row>
@@ -1610,12 +1610,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime03.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime03.jpeg</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime03_p_chime-copper-tree-581205.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime03_p_chime-copper-tree-581205.jpg</t>
         </is>
       </c>
     </row>
@@ -1625,12 +1625,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime04.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime04.jpeg</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime04_p_pagoda-public-wind-chimes-240708.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime04_p_pagoda-public-wind-chimes-240708.jpg</t>
         </is>
       </c>
     </row>
@@ -1640,12 +1640,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime05.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime05.jpeg</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime05_p_pexels-1153094.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime05_p_pexels-1153094.jpg</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime06.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime06.jpeg</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime06_pxh_wood-wind-bell-decoration-relax-hanging-827907-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime06_pxh_wood-wind-bell-decoration-relax-hanging-827907-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -1670,12 +1670,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime07.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime07.jpeg</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime07_p_colours-wind-chime-1398492.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime07_p_colours-wind-chime-1398492.jpg</t>
         </is>
       </c>
     </row>
@@ -1685,12 +1685,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime08.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime08.jpeg</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime08_pxh_antique-ring-japan-lighting-sound-nara-1001480-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime08_pxh_antique-ring-japan-lighting-sound-nara-1001480-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime09.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime09.jpeg</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime09_np_windspiel-4025977_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime09_np_windspiel-4025977_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -1715,12 +1715,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime10.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime10.jpeg</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime10_np_jin-li-376015_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime10_np_jin-li-376015_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -1730,12 +1730,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime11.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime11.jpeg</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime11_p_art-background-background-backlight-2727699.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime11_p_art-background-background-backlight-2727699.jpg</t>
         </is>
       </c>
     </row>
@@ -1745,12 +1745,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime12.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime12.jpeg</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime12_p_pexels-2010385.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime12_p_pexels-2010385.jpg</t>
         </is>
       </c>
     </row>
@@ -1760,12 +1760,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime13.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime13.jpeg</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime13_f_7780999994_97e1170680_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime13_f_7780999994_97e1170680_o.jpg</t>
         </is>
       </c>
     </row>
@@ -1775,12 +1775,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime14.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime14.jpeg</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime14_pp_relax-sound-background-white-wood-wallpaper-preview.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime14_pp_relax-sound-background-white-wood-wallpaper-preview.jpg</t>
         </is>
       </c>
     </row>
@@ -1790,12 +1790,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime15.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime15.jpeg</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime15_p_chimes-new-age-wind-chimes-457457.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime15_p_chimes-new-age-wind-chimes-457457.jpg</t>
         </is>
       </c>
     </row>
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime16.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime16.jpeg</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime16_f_28448874769_d3393a96c9_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime16_f_28448874769_d3393a96c9_o.jpg</t>
         </is>
       </c>
     </row>
@@ -1820,12 +1820,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime17.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime17.jpeg</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime17_np_wind-2492229_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime17_np_wind-2492229_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime18.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime18.jpeg</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime18_pxh_outdoor-branch-light-plant-leaf-flower-746339-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime18_pxh_outdoor-branch-light-plant-leaf-flower-746339-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -1850,12 +1850,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime19.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime19.jpeg</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime19_np_carillon-3664687_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime19_np_carillon-3664687_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -1865,12 +1865,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime20.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime20.jpeg</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_chime\chime20_pxh_tower-mast-lighting-72489-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_chime\chime20_pxh_tower-mast-lighting-72489-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -1880,12 +1880,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift01.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift01.jpeg</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift01_f_11386397234_ed2596d9e2_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift01_f_11386397234_ed2596d9e2_o.jpg</t>
         </is>
       </c>
     </row>
@@ -1895,12 +1895,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift02.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift02.jpeg</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift02_f_4212691870_414407269d_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift02_f_4212691870_414407269d_o.jpg</t>
         </is>
       </c>
     </row>
@@ -1910,12 +1910,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift03.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift03.jpeg</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift03_f_2142253931_dbb1ca159e_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift03_f_2142253931_dbb1ca159e_o.jpg</t>
         </is>
       </c>
     </row>
@@ -1925,12 +1925,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift04.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift04.jpeg</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift04_f_6536412949_9cd5a0c5aa_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift04_f_6536412949_9cd5a0c5aa_o.jpg</t>
         </is>
       </c>
     </row>
@@ -1940,12 +1940,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift05.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift05.jpeg</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift05_f_27470558199_394c4e86c0_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift05_f_27470558199_394c4e86c0_o.jpg</t>
         </is>
       </c>
     </row>
@@ -1955,12 +1955,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift06.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift06.jpeg</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift06_p_pexels-photo-840953.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift06_p_pexels-photo-840953.jpeg</t>
         </is>
       </c>
     </row>
@@ -1970,12 +1970,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift07.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift07.jpeg</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift07_pxh_christmas_present_ribbon_card_gift_christmas_present_holiday_decoration-761420.jpg!d.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift07_pxh_christmas_present_ribbon_card_gift_christmas_present_holiday_decoration-761420.jpg!d.jpeg</t>
         </is>
       </c>
     </row>
@@ -1985,12 +1985,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift08.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift08.jpeg</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift08_np_gift-wrapped-presents.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift08_np_gift-wrapped-presents.jpg</t>
         </is>
       </c>
     </row>
@@ -2000,12 +2000,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift09.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift09.jpeg</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift09_f_44309380495_1ecdfbf4ef_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift09_f_44309380495_1ecdfbf4ef_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2015,12 +2015,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift10.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift10.jpeg</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift10_pxh_christmas_presents_decoration_holiday_season_winter_celebrate_december-586956.jpg!d.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift10_pxh_christmas_presents_decoration_holiday_season_winter_celebrate_december-586956.jpg!d.jpeg</t>
         </is>
       </c>
     </row>
@@ -2030,12 +2030,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift11.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift11.jpeg</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift11_pn_2017-03-12-07-16-15-725x483.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift11_pn_2017-03-12-07-16-15-725x483.jpg</t>
         </is>
       </c>
     </row>
@@ -2045,12 +2045,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift12.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift12.jpeg</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift12_np_santa-3015822_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift12_np_santa-3015822_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -2060,12 +2060,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift13.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift13.jpeg</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift13_pxh_christmas_made_gifts_surprise_grinding_packed_christmas_decorations_greeting_card-1207561.jpg!d.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift13_pxh_christmas_made_gifts_surprise_grinding_packed_christmas_decorations_greeting_card-1207561.jpg!d.jpeg</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2075,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift14.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift14.jpeg</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift14_mp_Christmas-Holiday-Gift-Tag-Wrap-Ribbon-2593479.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift14_mp_Christmas-Holiday-Gift-Tag-Wrap-Ribbon-2593479.jpg</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift15.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift15.jpeg</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift15_mp_Christmas-Give-Christmas-Present-Gifts-3835455.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift15_mp_Christmas-Give-Christmas-Present-Gifts-3835455.jpg</t>
         </is>
       </c>
     </row>
@@ -2105,12 +2105,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift16.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift16.jpeg</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift16_pxh_present_christmas_christmas_presents_red_celebration_xmas_decoration_ribbon-856480.jpg!d.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift16_pxh_present_christmas_christmas_presents_red_celebration_xmas_decoration_ribbon-856480.jpg!d.jpeg</t>
         </is>
       </c>
     </row>
@@ -2120,12 +2120,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift17.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift17.jpeg</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift17_p_pexels-photo-1064470.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift17_p_pexels-photo-1064470.jpeg</t>
         </is>
       </c>
     </row>
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift18.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift18.jpeg</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift18_pdp_a-christmas-gift.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift18_pdp_a-christmas-gift.jpg</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift19.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift19.jpeg</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift19_p_pexels-pchristmas_gift12hoto-76931.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift19_p_pexels-pchristmas_gift12hoto-76931.jpeg</t>
         </is>
       </c>
     </row>
@@ -2165,12 +2165,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift20.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift20.jpeg</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_gift\christmas_gift20_pa_christmas-3015776_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_gift\christmas_gift20_pa_christmas-3015776_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking01.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking01.jpeg</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking01_w__The_stockings_were_hung_by_the_chimney_with_care._._.__(5354088519).jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking01_w__The_stockings_were_hung_by_the_chimney_with_care._._.__(5354088519).jpg</t>
         </is>
       </c>
     </row>
@@ -2195,12 +2195,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking02.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking02.jpeg</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking02_w_Beautiful_handmade_Christmas_stockings_and_more_from_Asia_(5250723832).jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking02_w_Beautiful_handmade_Christmas_stockings_and_more_from_Asia_(5250723832).jpg</t>
         </is>
       </c>
     </row>
@@ -2210,12 +2210,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking03.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking03.jpeg</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking03_mdg_161223-F-LM051-017.JPG</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking03_mdg_161223-F-LM051-017.JPG</t>
         </is>
       </c>
     </row>
@@ -2225,12 +2225,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking04.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking04.jpeg</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking04_f_313677243_06334da699_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking04_f_313677243_06334da699_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2240,12 +2240,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking05.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking05.jpeg</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking05_f_70989985_c3d7ba1fce_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking05_f_70989985_c3d7ba1fce_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2255,12 +2255,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking06.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking06.jpeg</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking06_f_324183536_fa1082893d_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking06_f_324183536_fa1082893d_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2270,12 +2270,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking07.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking07.jpeg</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking07_f_5425978601_e2917598f4_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking07_f_5425978601_e2917598f4_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2285,12 +2285,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking08.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking08.jpeg</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking08_f_3090197116_2c8e733fd3_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking08_f_3090197116_2c8e733fd3_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2300,12 +2300,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking09.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking09.jpeg</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking09_f_46310907432_31e28b24fc_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking09_f_46310907432_31e28b24fc_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2315,12 +2315,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking10.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking10.jpeg</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking10_mdg_091218-F-7370M-001.JPG</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking10_mdg_091218-F-7370M-001.JPG</t>
         </is>
       </c>
     </row>
@@ -2330,12 +2330,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking11.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking11.jpeg</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking11_f_31522195297_0b8799cacd_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking11_f_31522195297_0b8799cacd_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking12.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking12.jpeg</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking12_f_5271402311_f99ea67d2e_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking12_f_5271402311_f99ea67d2e_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2360,12 +2360,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking13.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking13.jpeg</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking13_mdg_151217-F-FU646-110.JPG</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking13_mdg_151217-F-FU646-110.JPG</t>
         </is>
       </c>
     </row>
@@ -2375,12 +2375,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking14.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking14.jpeg</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking14_f_4201782731_d5ee385190_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking14_f_4201782731_d5ee385190_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2390,12 +2390,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking15.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking15.jpeg</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking15_f_4424006922_ee51840760_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking15_f_4424006922_ee51840760_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2405,12 +2405,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking16.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking16.jpeg</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking16_f_5298051717_07f9883c40_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking16_f_5298051717_07f9883c40_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking17.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking17.jpeg</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking17_mp_Seasonal-Christmas-Stockings-Xmas-Fireplace-Hearth-518587.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking17_mp_Seasonal-Christmas-Stockings-Xmas-Fireplace-Hearth-518587.jpg</t>
         </is>
       </c>
     </row>
@@ -2435,12 +2435,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking18.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking18.jpeg</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking18_p_pexels-photo-1734424.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking18_p_pexels-photo-1734424.jpeg</t>
         </is>
       </c>
     </row>
@@ -2450,12 +2450,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking19.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking19.jpeg</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking19_f_7626716946_4419204747_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking19_f_7626716946_4419204747_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2465,12 +2465,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking20.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking20.jpeg</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_stocking\christmas_stocking20_p_pexels-photo-260491.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_stocking\christmas_stocking20_p_pexels-photo-260491.jpeg</t>
         </is>
       </c>
     </row>
@@ -2480,12 +2480,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree01.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree01.jpeg</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree01_w_Christmas_tree_in_J._Kärkkäinen.JPG</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree01_w_Christmas_tree_in_J._Kärkkäinen.JPG</t>
         </is>
       </c>
     </row>
@@ -2495,12 +2495,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree02.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree02.jpeg</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree02_w_Lobster_Trap_Christmas_Tree.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree02_w_Lobster_Trap_Christmas_Tree.jpg</t>
         </is>
       </c>
     </row>
@@ -2510,12 +2510,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree03.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree03.jpeg</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree03_pxh_celebration-christmas-christmas-balls-christmas-decoration-christmas-lights-christmas-tree-1476643-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree03_pxh_celebration-christmas-christmas-balls-christmas-decoration-christmas-lights-christmas-tree-1476643-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -2525,12 +2525,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree04.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree04.jpeg</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree04_p_bright-christmas-balls-christmas-decorations-1734432.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree04_p_bright-christmas-balls-christmas-decorations-1734432.jpg</t>
         </is>
       </c>
     </row>
@@ -2540,12 +2540,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree05.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree05.jpeg</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree05_np_christmas-tree-1908900_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree05_np_christmas-tree-1908900_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -2555,12 +2555,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree06.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree06.jpeg</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree06_f_3072816911_2107ce9935_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree06_f_3072816911_2107ce9935_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2570,12 +2570,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree07.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree07.jpeg</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree07_p_balls-blinds-bright-730194.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree07_p_balls-blinds-bright-730194.jpg</t>
         </is>
       </c>
     </row>
@@ -2585,12 +2585,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree08.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree08.jpeg</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree08_p_celebration-christmas-christmas-balls-1734436.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree08_p_celebration-christmas-christmas-balls-1734436.jpg</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree09.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree09.jpeg</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree09_w_Christmas_tree_in_Target_store,_Indooroopilly,_Queensland,_Australia.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree09_w_Christmas_tree_in_Target_store,_Indooroopilly,_Queensland,_Australia.jpg</t>
         </is>
       </c>
     </row>
@@ -2615,12 +2615,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree10.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree10.jpeg</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree10_w_Christmas_tree_at_CTS_TV_Production_Building_20180106a.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree10_w_Christmas_tree_at_CTS_TV_Production_Building_20180106a.jpg</t>
         </is>
       </c>
     </row>
@@ -2630,12 +2630,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree11.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree11.jpeg</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree11_w_Christmas_trees_at_Tiffany,_Pacific_Fair,_Queensland,_Australia_in_2017.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree11_w_Christmas_trees_at_Tiffany,_Pacific_Fair,_Queensland,_Australia_in_2017.jpg</t>
         </is>
       </c>
     </row>
@@ -2645,12 +2645,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree12.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree12.jpeg</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree12_w_Aluminum_Christmas_tree2.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree12_w_Aluminum_Christmas_tree2.jpg</t>
         </is>
       </c>
     </row>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree13.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree13.jpeg</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree13_f_43477493150_5085f94487_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree13_f_43477493150_5085f94487_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2675,12 +2675,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree14.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree14.jpeg</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree14_w_Christmas_tree_at_the_Regatta_Hotel,_Brisbane_01.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree14_w_Christmas_tree_at_the_Regatta_Hotel,_Brisbane_01.jpg</t>
         </is>
       </c>
     </row>
@@ -2690,12 +2690,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree15.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree15.jpeg</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree15_w_Christmas_Tree_-_Taj_Mall_Jordan_2.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree15_w_Christmas_Tree_-_Taj_Mall_Jordan_2.jpg</t>
         </is>
       </c>
     </row>
@@ -2705,12 +2705,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree16.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree16.jpeg</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree16_w_900px-Christmas_tree_in_Target_store,_Indooroopilly,_Queensland,_Australia.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree16_w_900px-Christmas_tree_in_Target_store,_Indooroopilly,_Queensland,_Australia.jpg</t>
         </is>
       </c>
     </row>
@@ -2720,12 +2720,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree17.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree17.jpeg</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree17_w_Artificial_Christmas_tree.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree17_w_Artificial_Christmas_tree.jpg</t>
         </is>
       </c>
     </row>
@@ -2735,12 +2735,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree18.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree18.jpeg</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree18_f_5283023540_9e2ce272e2_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree18_f_5283023540_9e2ce272e2_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2750,12 +2750,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree19.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree19.jpeg</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree19_pdp_mini-christmas-tree.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree19_pdp_mini-christmas-tree.jpg</t>
         </is>
       </c>
     </row>
@@ -2765,12 +2765,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree20.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree20.jpeg</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_christmas_tree\christmas_tree20_w_900px-Christmas_tree,_Parliament_House,_Canberra.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_christmas_tree\christmas_tree20_w_900px-Christmas_tree,_Parliament_House,_Canberra.jpg</t>
         </is>
       </c>
     </row>
@@ -2780,12 +2780,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock01.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock01.jpeg</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock01_f_16008262107_554d9a7b58_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock01_f_16008262107_554d9a7b58_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2795,12 +2795,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock02.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock02.jpeg</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock02_f_39121499415_98da0daa91_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock02_f_39121499415_98da0daa91_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2810,12 +2810,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock03.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock03.jpeg</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock03_f_33695161_c3315f071a_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock03_f_33695161_c3315f071a_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2825,12 +2825,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock04.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock04.jpeg</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock04_f_6093951442_7f9374949e_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock04_f_6093951442_7f9374949e_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2840,12 +2840,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock05.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock05.jpeg</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock05_f_45005380991_bb70ed1c54_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock05_f_45005380991_bb70ed1c54_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock06.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock06.jpeg</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock06_f_27709133677_e3ac0f7194_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock06_f_27709133677_e3ac0f7194_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2870,12 +2870,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock07.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock07.jpeg</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock07_f_23403032289_bc8b211b06_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock07_f_23403032289_bc8b211b06_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2885,12 +2885,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock08.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock08.jpeg</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock08_f_5876472100_5cf18f9e16_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock08_f_5876472100_5cf18f9e16_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock09.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock09.jpeg</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock09_f_39458708502_0530ca2563_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock09_f_39458708502_0530ca2563_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock10.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock10.jpeg</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock10_f_43548922014_34015b9f85_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock10_f_43548922014_34015b9f85_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2930,12 +2930,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock11.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock11.jpeg</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock11_f_5849551762_5e099aeeea_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock11_f_5849551762_5e099aeeea_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2945,12 +2945,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock12.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock12.jpeg</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock12_f_27447784289_c7266336f9_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock12_f_27447784289_c7266336f9_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2960,12 +2960,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock13.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock13.jpeg</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock13_f_39382987272_06cd250a0f_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock13_f_39382987272_06cd250a0f_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2975,12 +2975,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock14.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock14.jpeg</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock14_f_24821773257_f2f6f9333b_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock14_f_24821773257_f2f6f9333b_o.jpg</t>
         </is>
       </c>
     </row>
@@ -2990,12 +2990,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock15.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock15.jpeg</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock15_f_423760159_89db3c43bc_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock15_f_423760159_89db3c43bc_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3005,12 +3005,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock16.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock16.jpeg</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock16_f_121321463_bd46bb950b_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock16_f_121321463_bd46bb950b_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3020,12 +3020,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock17.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock17.jpeg</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock17_f_38732285870_208e632d92_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock17_f_38732285870_208e632d92_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3035,12 +3035,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock18.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock18.jpeg</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock18_f_488343459_7d09be0e42_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock18_f_488343459_7d09be0e42_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3050,12 +3050,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock19.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock19.jpeg</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock19_f_3375654385_41f5b7eb9e_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock19_f_3375654385_41f5b7eb9e_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3065,12 +3065,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock20.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock20.jpeg</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_clock\clock20_pn_PIXNIO-2142924-6000x4000.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_clock\clock20_pn_PIXNIO-2142924-6000x4000.jpg</t>
         </is>
       </c>
     </row>
@@ -3080,12 +3080,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain01.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain01.jpeg</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain01_f_3684153074_7682b706c4_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain01_f_3684153074_7682b706c4_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3095,12 +3095,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain02.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain02.jpeg</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain02_f_37356725181_2c07767c7e_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain02_f_37356725181_2c07767c7e_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain03.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain03.jpeg</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain03_f_3287089653_9cc6ecbf89_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain03_f_3287089653_9cc6ecbf89_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain04.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain04.jpeg</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain04_f_389348559_b271c1f4d6_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain04_f_389348559_b271c1f4d6_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain05.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain05.jpeg</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain05_pxh_table-restaurant-home-decoration-curtain-room-646102-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain05_pxh_table-restaurant-home-decoration-curtain-room-646102-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -3155,12 +3155,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain06.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain06.jpeg</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain06_f_3925725947_aeab08fde4_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain06_f_3925725947_aeab08fde4_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3170,12 +3170,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain07.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain07.jpeg</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain07_pxh_window-curtain-decor-material-interior-design-textile-830152-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain07_pxh_window-curtain-decor-material-interior-design-textile-830152-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -3185,12 +3185,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain08.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain08.jpeg</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain08_f_8067597540_47bd621e65_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain08_f_8067597540_47bd621e65_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3200,12 +3200,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain09.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain09.jpeg</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain09_w_Striped_Tab_Top_Curtains.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain09_w_Striped_Tab_Top_Curtains.jpg</t>
         </is>
       </c>
     </row>
@@ -3215,12 +3215,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain10.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain10.jpeg</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain10_f_2081251376_8fc5539325_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain10_f_2081251376_8fc5539325_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3230,12 +3230,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain11.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain11.jpeg</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain11_f_34537967944_a3526d31c3_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain11_f_34537967944_a3526d31c3_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3245,12 +3245,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain12.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain12.jpeg</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain12_w_Window_with_transluscent_curtains.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain12_w_Window_with_transluscent_curtains.jpg</t>
         </is>
       </c>
     </row>
@@ -3260,12 +3260,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain13.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain13.jpeg</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain13_f_3298076110_e3ca257f75_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain13_f_3298076110_e3ca257f75_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3275,12 +3275,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain14.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain14.jpeg</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain14_f_5175062684_e91557da7d_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain14_f_5175062684_e91557da7d_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3290,12 +3290,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain15.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain15.jpeg</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain15_f_3905130861_ae6ba9ea4c_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain15_f_3905130861_ae6ba9ea4c_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3305,12 +3305,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain16.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain16.jpeg</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain16_w_Curtains_lo-res.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain16_w_Curtains_lo-res.jpg</t>
         </is>
       </c>
     </row>
@@ -3320,12 +3320,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain17.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain17.jpeg</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain17_p_pexels-photo-462197.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain17_p_pexels-photo-462197.jpeg</t>
         </is>
       </c>
     </row>
@@ -3335,12 +3335,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain18.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain18.jpeg</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain18_pxh_photo-45780.jpg!d.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain18_pxh_photo-45780.jpg!d.jpeg</t>
         </is>
       </c>
     </row>
@@ -3350,12 +3350,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain19.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain19.jpeg</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain19_p_colors-curtain-facade-1161924.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain19_p_colors-curtain-facade-1161924.jpg</t>
         </is>
       </c>
     </row>
@@ -3365,12 +3365,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain20.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain20.jpeg</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_curtain\curtain20_w_1302px-Rideaux_Chanteclair_IDECO_mode.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_curtain\curtain20_w_1302px-Rideaux_Chanteclair_IDECO_mode.jpg</t>
         </is>
       </c>
     </row>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil01.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion01.jpeg</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil01_f_37129417751_e747a5aaf2_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion01_f_4447731551_29463eb2dd_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3395,12 +3395,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil02.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion02.jpeg</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil02_f_2581587418_4ec4d83e6f_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion02_pxh_pillows_sofa_fabric_seats_furniture_relaxation-1040871.jpg</t>
         </is>
       </c>
     </row>
@@ -3410,12 +3410,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil03.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion03.jpeg</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil03_f_32848528337_1f8790acd6_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion03_pn_PIXNIO-1929998-4160x3120.jpeg</t>
         </is>
       </c>
     </row>
@@ -3425,12 +3425,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil04.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion04.jpeg</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil04_f_447852845_5b0b0c6d54_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion04_pxh_pillows_pillow_geometric_grey_blue_nendo_boconcept-876041.jpg</t>
         </is>
       </c>
     </row>
@@ -3440,12 +3440,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil05.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion05.jpeg</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil05_pa_essential-oils-4069846_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion05_pn_PIXNIO-1801768-4160x3120.jpeg</t>
         </is>
       </c>
     </row>
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil06.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion06.jpeg</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil06_f_27330946272_aec463b09b_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion06_pxh_pillows_pile_of_pillows_textile_comfort_home_cotton_domestic_clean-752296.jpg</t>
         </is>
       </c>
     </row>
@@ -3470,12 +3470,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil07.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion07.jpeg</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil07_f_18338149122_782575541b_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion07_pxh_orange_patterns_retro_round_designs_white_background_home-1137622.jpg</t>
         </is>
       </c>
     </row>
@@ -3485,12 +3485,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil08.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion08.jpeg</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil08_pa_aroma-4076727_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion08_pxh_bed_bed_frame_bedroom_comfort_contemporary_cushion_design_empty-1553723.jpg</t>
         </is>
       </c>
     </row>
@@ -3500,12 +3500,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil09.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion09.jpeg</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil09_f_17602129804_ed4ea581de_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion09_pxh_7808fa30b6df6071c0d1ad77dec8-1584137.jpg</t>
         </is>
       </c>
     </row>
@@ -3515,12 +3515,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil10.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion10.jpeg</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil10_f_26822565573_9e625f8dfd_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion10_pxh_3a8086c27e46476c765724ccaa19-1587703.jpg</t>
         </is>
       </c>
     </row>
@@ -3530,12 +3530,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil11.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion11.jpeg</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil11_f_18327829040_f491ac49bc_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion11_mp_Bed-Pillows-Pattern-Cushion-Sofa-Pillow-Interior-4326131.jpg</t>
         </is>
       </c>
     </row>
@@ -3545,12 +3545,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil12.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion12.jpeg</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil12_f_27330946012_497b0d0eb7_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion12_np_cushion-298778_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -3560,12 +3560,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil13.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion13.jpeg</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil13_f_6725255029_91037fb4e2_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion13_p_pexels-photo-763146.jpeg</t>
         </is>
       </c>
     </row>
@@ -3575,12 +3575,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil14.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion14.jpeg</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil14_f_18483029392_a0a086ec1a_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion14_p_pexels-photo-833046.jpeg</t>
         </is>
       </c>
     </row>
@@ -3590,12 +3590,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil15.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion15.jpeg</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil15_f_18263563471_69d9079dd8_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion15_p_pexels-photo-920383.jpeg</t>
         </is>
       </c>
     </row>
@@ -3605,12 +3605,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil16.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion16.jpeg</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil16_f_26822565843_6304eb547f_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion16_p_pexels-photo-994169.jpeg</t>
         </is>
       </c>
     </row>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil17.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion17.jpeg</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil17_f_18517449241_43fe72bccd_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion17_pa_cushion-1164088_960_720.jpg</t>
         </is>
       </c>
     </row>
@@ -3635,12 +3635,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil18.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion18.jpeg</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil18_f_27330946592_2993074e0c_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion18_pn_PIXNIO-80113-5574x3702.jpeg</t>
         </is>
       </c>
     </row>
@@ -3650,12 +3650,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil19.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion19.jpeg</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil19_f_26822566243_23105c221e_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion19_pn_PIXNIO-212684-4271x2850.jpeg</t>
         </is>
       </c>
     </row>
@@ -3665,12 +3665,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil20.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion20.jpeg</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_essential_oil\essential_oil20_f_27330947222_b977961a84_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_cushion\cushion20_pn_PIXNIO-213768-5700x3800.jpeg</t>
         </is>
       </c>
     </row>
@@ -3680,12 +3680,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot01.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil01.jpeg</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot01_pxh_plant-flower-decoration-pink-flowers-flower-pot-718843-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil01_f_37129417751_e747a5aaf2_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3695,12 +3695,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot02.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil02.jpeg</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot02_pn_PIXNIO-239689-4681x3100.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil02_f_2581587418_4ec4d83e6f_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3710,12 +3710,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot03.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil03.jpeg</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot03_np_fresh-2119590_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil03_f_32848528337_1f8790acd6_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3725,12 +3725,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot04.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil04.jpeg</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot04_pdp_empty-flowerpot.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil04_f_447852845_5b0b0c6d54_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3740,12 +3740,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot05.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil05.jpeg</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot05_pxh_work-plant-bench-flower-vase-green-724137-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil05_pa_essential-oils-4069846_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -3755,12 +3755,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot06.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil06.jpeg</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot06_np_junk-2710780_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil06_f_27330946272_aec463b09b_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3770,12 +3770,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot07.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil07.jpeg</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot07_pxh_wood-pot-food-produce-ceramic-baking-1237329-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil07_f_18338149122_782575541b_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3785,12 +3785,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot08.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil08.jpeg</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot08_f_9227575241_915595c8b2_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil08_pa_aroma-4076727_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -3800,12 +3800,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot09.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil09.jpeg</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot09_np_vase-1408585_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil09_f_17602129804_ed4ea581de_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3815,12 +3815,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot10.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil10.jpeg</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot10_np_vase-1408578_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil10_f_26822565573_9e625f8dfd_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3830,12 +3830,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot11.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil11.jpeg</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot11_np_vase-82606_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil11_f_18327829040_f491ac49bc_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3845,12 +3845,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot12.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil12.jpeg</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot12_f_9592086309_2cf4cd8662_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil12_f_27330946012_497b0d0eb7_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot13.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil13.jpeg</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot13_f_669666190_1804566fa0_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil13_f_6725255029_91037fb4e2_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3875,12 +3875,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot14.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil14.jpeg</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot14_f_3303560659_06d5c7a010_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil14_f_18483029392_a0a086ec1a_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3890,12 +3890,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot15.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil15.jpeg</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot15_f_7166540170_abb55f7b26_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil15_f_18263563471_69d9079dd8_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3905,12 +3905,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot16.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil16.jpeg</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot16_f_23768997322_c4e270fcae_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil16_f_26822565843_6304eb547f_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3920,12 +3920,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot17.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil17.jpeg</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot17_f_2920089366_382c540f35_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil17_f_18517449241_43fe72bccd_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3935,12 +3935,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot18.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil18.jpeg</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot18_f_11288867056_3c9fce37e2_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil18_f_27330946592_2993074e0c_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3950,12 +3950,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot19.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil19.jpeg</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot19_f_19641307873_4a5a51a6da_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil19_f_26822566243_23105c221e_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3965,12 +3965,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot20.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil20.jpeg</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_flowerpot\flower_pot20_f_19641307873_4a5a51a6da_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_essential_oil\essential_oil20_f_27330947222_b977961a84_o.jpg</t>
         </is>
       </c>
     </row>
@@ -3980,12 +3980,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain01.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot01.jpeg</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain01_w_Patsy_and_Forrest_Shumway_Fountain,_USC.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot01_pxh_plant-flower-decoration-pink-flowers-flower-pot-718843-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -3995,12 +3995,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain02.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot02.jpeg</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain02_w_Fountain_Park_(35679905532).jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot02_pn_PIXNIO-239689-4681x3100.jpg</t>
         </is>
       </c>
     </row>
@@ -4010,12 +4010,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain03.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot03.jpeg</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain03_f_2825946936_b0fb72731e_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot03_np_fresh-2119590_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -4025,12 +4025,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain04.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot04.jpeg</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain04_w_Water_fountain_at_Christchurch_Botanical_Gardens.JPG</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot04_pdp_empty-flowerpot.jpg</t>
         </is>
       </c>
     </row>
@@ -4040,12 +4040,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain05.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot05.jpeg</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain05_f_20418512544_85c32e0c26_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot05_pxh_work-plant-bench-flower-vase-green-724137-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -4055,12 +4055,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain06.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot06.jpeg</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain06_w_Flat_fountain_(27956209978).jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot06_np_junk-2710780_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain07.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot07.jpeg</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain07_w_Fountain,_Regent_s_Park,_London_-_DSC07051.JPG</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot07_pxh_wood-pot-food-produce-ceramic-baking-1237329-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -4085,12 +4085,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain08.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot08.jpeg</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain08_f_26203782290_fbe5c13f67_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot08_f_9227575241_915595c8b2_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain09.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot09.jpeg</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain09_w_Charleston-SC-pineapple-fountain.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot09_np_vase-1408585_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -4115,12 +4115,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain10.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot10.jpeg</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain10_f_487569735_2ce2fe8008_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot10_np_vase-1408578_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -4130,12 +4130,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain11.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot11.jpeg</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain11_w_Wolf_Harris_Fountain,_Dunedin,_NZ.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot11_np_vase-82606_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -4145,12 +4145,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain12.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot12.jpeg</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain12_w_Alliance_Central_Park_fountain_9.JPG</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot12_f_9592086309_2cf4cd8662_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4160,12 +4160,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain13.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot13.jpeg</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain13_f_250560972_6e6b6a472c_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot13_f_669666190_1804566fa0_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4175,12 +4175,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain14.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot14.jpeg</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain14_f_3644519127_43c405bb15_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot14_f_3303560659_06d5c7a010_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4190,12 +4190,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain15.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot15.jpeg</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain15_pa_fountain-3649162_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot15_f_7166540170_abb55f7b26_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4205,12 +4205,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain16.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot16.jpeg</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain16_w_Fountain_at_Linn_Park_Birmingham_AL.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot16_f_23768997322_c4e270fcae_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4220,12 +4220,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain17.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot17.jpeg</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain17_w_900px-Swan_House_-_Fountain.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot17_f_2920089366_382c540f35_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4235,12 +4235,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain18.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot18.jpeg</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain18_w_Saxon_Garden_Fountain.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot18_f_11288867056_3c9fce37e2_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4250,12 +4250,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain19.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot19.jpeg</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain19_w_Bea_Evenson_Fountain_3.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot19_f_19641307873_4a5a51a6da_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4265,12 +4265,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain20.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot20.jpeg</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_fountain\fountain20_f_32748834653_245080e657_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_flowerpot\flower_pot20_f_19641307873_4a5a51a6da_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4280,12 +4280,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode01.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain01.jpeg</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode01_pxh_rock-stone-natural-geological-geode-mineral-1380261-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain01_w_Patsy_and_Forrest_Shumway_Fountain,_USC.jpg</t>
         </is>
       </c>
     </row>
@@ -4295,12 +4295,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode02.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain02.jpeg</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode02_w_Amethyst_geode_-_Chapel_Corridor,_Chatsworth_House_-_Derbyshire,_England_-_DSC03014.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain02_w_Fountain_Park_(35679905532).jpg</t>
         </is>
       </c>
     </row>
@@ -4310,12 +4310,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode03.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain03.jpeg</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode03_f_32935201091_b13338a90b_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain03_f_2825946936_b0fb72731e_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4325,12 +4325,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode04.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain04.jpeg</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode04_np_geode-1651177_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain04_w_Water_fountain_at_Christchurch_Botanical_Gardens.JPG</t>
         </is>
       </c>
     </row>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode05.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain05.jpeg</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode05_np_geode-3263736_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain05_f_20418512544_85c32e0c26_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4355,12 +4355,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode06.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain06.jpeg</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode06_f_43681799882_968fe9dc9d_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain06_w_Flat_fountain_(27956209978).jpg</t>
         </is>
       </c>
     </row>
@@ -4370,12 +4370,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode07.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain07.jpeg</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode07_f_31771109324_86ec012b51_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain07_w_Fountain,_Regent_s_Park,_London_-_DSC07051.JPG</t>
         </is>
       </c>
     </row>
@@ -4385,12 +4385,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode08.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain08.jpeg</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode08_f_41598898692_63e748424d_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain08_f_26203782290_fbe5c13f67_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4400,12 +4400,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode09.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain09.jpeg</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode09_f_31939795003_4757fabbf2_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain09_w_Charleston-SC-pineapple-fountain.jpg</t>
         </is>
       </c>
     </row>
@@ -4415,12 +4415,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode10.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain10.jpeg</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode10_f_32373848810_2d27f1129d_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain10_f_487569735_2ce2fe8008_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4430,12 +4430,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode11.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain11.jpeg</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode11_f_Geode_druse.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain11_w_Wolf_Harris_Fountain,_Dunedin,_NZ.jpg</t>
         </is>
       </c>
     </row>
@@ -4445,12 +4445,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode12.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain12.jpeg</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode12_f_34581522545_c2b692a2ac_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain12_w_Alliance_Central_Park_fountain_9.JPG</t>
         </is>
       </c>
     </row>
@@ -4460,12 +4460,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode13.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain13.jpeg</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode13_f_47755725992_d4e12834b2_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain13_f_250560972_6e6b6a472c_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4475,12 +4475,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode14.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain14.jpeg</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode14_f_29878280128_a7e6d18fb8_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain14_f_3644519127_43c405bb15_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4490,12 +4490,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode15.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain15.jpeg</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode15_f_Geode_-_Rice_NW_Museum_in_Oregon.JPG</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain15_pa_fountain-3649162_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -4505,12 +4505,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode16.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain16.jpeg</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode16_f_31939794373_90a3d16dbe_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain16_w_Fountain_at_Linn_Park_Birmingham_AL.jpg</t>
         </is>
       </c>
     </row>
@@ -4520,12 +4520,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode17.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain17.jpeg</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode17_f_29721755186_a000b05e6c_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain17_w_900px-Swan_House_-_Fountain.jpg</t>
         </is>
       </c>
     </row>
@@ -4535,12 +4535,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode18.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain18.jpeg</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode18_f_43749310981_019b7c1fa5_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain18_w_Saxon_Garden_Fountain.jpg</t>
         </is>
       </c>
     </row>
@@ -4550,12 +4550,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode19.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain19.jpeg</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode19_f_31939796183_4ac43ecdc2_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain19_w_Bea_Evenson_Fountain_3.jpg</t>
         </is>
       </c>
     </row>
@@ -4565,12 +4565,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode20.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain20.jpeg</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_geode\geode20_f_31771111984_cf800d03b5_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_fountain\fountain20_f_32748834653_245080e657_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker01.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker01.jpeg</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker01_f_15620581805_f58730a76f_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker01_f_15620581805_f58730a76f_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4595,12 +4595,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker02.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker02.jpeg</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker02_f_39615379_08ec763aa4_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker02_f_39615379_08ec763aa4_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4610,12 +4610,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker03.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker03.jpeg</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker03_f_brass-brass-knocker-brass-lion-1655274.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker03_f_brass-brass-knocker-brass-lion-1655274.jpg</t>
         </is>
       </c>
     </row>
@@ -4625,12 +4625,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker04.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker04.jpeg</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker04_pp_door-knocker-the-door-entrance-italy-wallpaper-preview.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker04_pp_door-knocker-the-door-entrance-italy-wallpaper-preview.jpg</t>
         </is>
       </c>
     </row>
@@ -4640,12 +4640,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker05.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker05.jpeg</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker05_np_architecture-3027657_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker05_np_architecture-3027657_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -4655,12 +4655,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker06.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker06.jpeg</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker06_pxh_wood-number-symbol-circle-carving-door-knocker-102386-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker06_pxh_wood-number-symbol-circle-carving-door-knocker-102386-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -4670,12 +4670,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker07.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker07.jpeg</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker07_pxh_wood-old-monument-statue-golden-metal-1281447-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker07_pxh_wood-old-monument-statue-golden-metal-1281447-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -4685,12 +4685,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker08.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker08.jpeg</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker08_pdp_brass-door-knocker.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker08_pdp_brass-door-knocker.jpg</t>
         </is>
       </c>
     </row>
@@ -4700,12 +4700,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker09.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker09.jpeg</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker09_pxh_antique-old-monument-france-statue-metal-1027369-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker09_pxh_antique-old-monument-france-statue-metal-1027369-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -4715,12 +4715,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker10.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker10.jpeg</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker10_f_6185744185_310f293854_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker10_f_6185744185_310f293854_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4730,12 +4730,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker11.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker11.jpeg</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker11_np_door-knocker-283231_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker11_np_door-knocker-283231_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -4745,12 +4745,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker12.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker12.jpeg</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker12_f_2472920009_a17c62dc47_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker12_f_2472920009_a17c62dc47_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4760,12 +4760,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker13.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker13.jpeg</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker13_np_knocker-482327_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker13_np_knocker-482327_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -4775,12 +4775,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker14.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker14.jpeg</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker14_p_door-door-knocker-mailbox-1540145.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker14_p_door-door-knocker-mailbox-1540145.jpg</t>
         </is>
       </c>
     </row>
@@ -4790,12 +4790,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker15.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker15.jpeg</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker15_w_Fazola_eger_knocker.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker15_w_Fazola_eger_knocker.jpg</t>
         </is>
       </c>
     </row>
@@ -4805,12 +4805,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker16.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker16.jpeg</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker16_pdp_old-door-knocker.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker16_pdp_old-door-knocker.jpg</t>
         </is>
       </c>
     </row>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker17.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker17.jpeg</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker17_w_Door_knocker,_Durham_-_England_P1200690_(13335776695).jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker17_w_Door_knocker,_Durham_-_England_P1200690_(13335776695).jpg</t>
         </is>
       </c>
     </row>
@@ -4835,12 +4835,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker18.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker18.jpeg</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker18_np_door-knocker-938657_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker18_np_door-knocker-938657_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -4850,12 +4850,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker19.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker19.jpeg</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker19_w_Lion_head_brass_door_knocker_central_Paris_2012-06-01.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker19_w_Lion_head_brass_door_knocker_central_Paris_2012-06-01.jpg</t>
         </is>
       </c>
     </row>
@@ -4865,12 +4865,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker20.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker20.jpeg</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_knocker\knocker20_pxh_architecture-wood-vintage-antique-house-ring-593449-pxhere.com.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_knocker\knocker20_pxh_architecture-wood-vintage-antique-house-ring-593449-pxhere.com.jpg</t>
         </is>
       </c>
     </row>
@@ -4880,12 +4880,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah01.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah01.jpeg</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah01_f_15899370277_f0672254fe_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah01_f_15899370277_f0672254fe_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4895,12 +4895,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah02.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah02.jpeg</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah02_f_4196419410_ae491fef53_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah02_f_4196419410_ae491fef53_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4910,12 +4910,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah03.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah03.jpeg</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah03_f_5269504718_1b49aca2f7_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah03_f_5269504718_1b49aca2f7_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4925,12 +4925,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah04.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah05.jpeg</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah04_f_4183805178_7d1e708493_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah05_w_Hanukkah_Menorah_6.JPG</t>
         </is>
       </c>
     </row>
@@ -4940,12 +4940,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah05.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah06.jpeg</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah05_w_Hanukkah_Menorah_6.JPG</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah06_f_15906924097_148bdd677f_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4955,12 +4955,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah06.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah06.jpeg</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah06_f_15906924097_148bdd677f_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah06_f_4183805178_7d1e708493_o.jpg</t>
         </is>
       </c>
     </row>
@@ -4970,12 +4970,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah07.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah07.jpeg</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah07_np_hanukkah-2197684_1280.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah07_np_hanukkah-2197684_1280.jpg</t>
         </is>
       </c>
     </row>
@@ -4985,12 +4985,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah08.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah08.jpeg</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah08_f_15903643979_911b1c2d1a_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah08_f_15903643979_911b1c2d1a_o.jpg</t>
         </is>
       </c>
     </row>
@@ -5000,12 +5000,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah09.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah09.jpeg</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah09_w_2017.12.12_National_Menorah,_Washington,_DC_USA_1365_(38980522982).jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah09_w_2017.12.12_National_Menorah,_Washington,_DC_USA_1365_(38980522982).jpg</t>
         </is>
       </c>
     </row>
@@ -5015,12 +5015,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah10.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah10.jpeg</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah10_f_3209822480_7c9eeb9cc5_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah10_f_3209822480_7c9eeb9cc5_o.jpg</t>
         </is>
       </c>
     </row>
@@ -5030,12 +5030,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah11.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah11.jpeg</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah11_w_Second_candle_of_Hanukkah.JPG</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah11_w_Second_candle_of_Hanukkah.JPG</t>
         </is>
       </c>
     </row>
@@ -5045,12 +5045,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah12.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah12.jpeg</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah12_w_The_8th_Night.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah12_w_The_8th_Night.jpg</t>
         </is>
       </c>
     </row>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah13.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah13.jpeg</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah13_w_Ancient_Synagogue_Barcelona_DSCN1386.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah13_w_Ancient_Synagogue_Barcelona_DSCN1386.jpg</t>
         </is>
       </c>
     </row>
@@ -5075,12 +5075,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah14.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah14.jpeg</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah14_w_Hanuka-Menorah-by-Gil-Dekel-2014.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah14_w_Hanuka-Menorah-by-Gil-Dekel-2014.jpg</t>
         </is>
       </c>
     </row>
@@ -5090,12 +5090,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah15.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah15.jpeg</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah15_w_Hanukkah_Menorah_5.JPG</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah15_w_Hanukkah_Menorah_5.JPG</t>
         </is>
       </c>
     </row>
@@ -5105,12 +5105,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah16.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah16.jpeg</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah16_w_Hanukkah_Menorah_9.JPG</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah16_w_Hanukkah_Menorah_9.JPG</t>
         </is>
       </c>
     </row>
@@ -5120,12 +5120,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah17.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah17.jpeg</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah17_w_Hanukkah_Menorah_8.JPG</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah17_w_Hanukkah_Menorah_8.JPG</t>
         </is>
       </c>
     </row>
@@ -5135,12 +5135,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah18.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah18.jpeg</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah18_w_Menorah_-_Old_Synagogue,_Kazimierz_(9159215964).jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah18_w_Menorah_-_Old_Synagogue,_Kazimierz_(9159215964).jpg</t>
         </is>
       </c>
     </row>
@@ -5150,12 +5150,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah19.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah19.jpeg</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah19_w_Exhibit_in_heichal_shlomo_-_Hanukkah_Menorah4.JPG</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah19_w_Exhibit_in_heichal_shlomo_-_Hanukkah_Menorah4.JPG</t>
         </is>
       </c>
     </row>
@@ -5165,12 +5165,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah20.jpeg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah20.jpeg</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>C:\Users\Francois\GitHub\ImageTask\decoration2\decoration_menorah\menorah20_f_4177066803_061bdbb65b_o.jpg</t>
+          <t>C:\Users\Francois\GitHub\ImageTask\decoration\decoration_menorah\menorah20_f_4177066803_061bdbb65b_o.jpg</t>
         </is>
       </c>
     </row>
